--- a/biology/Botanique/Instrument_de_musique_en_bambou/Instrument_de_musique_en_bambou.xlsx
+++ b/biology/Botanique/Instrument_de_musique_en_bambou/Instrument_de_musique_en_bambou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les instruments de musique en bambou sont le plus souvent des flûtes qui exploitent les tiges lignifiées (chaumes), naturellement creuses, des bambous.
 </t>
@@ -511,7 +523,9 @@
           <t>Vue d'ensemble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe dans le monde de nombreux types de flûtes de bambou, telles que dizi, xiao, shakuhachi, palendag et jinghu.
 Au Bangladesh et en Inde, c'est un instrument de musique très populaire, accessible même aux plus pauvres et choisi par de nombreux maîtres très respectés de la musique classique. La flûte de bambou est connue et vénérée avant tout comme la flûte divine définitivement associée à Krishna, qui est toujours représentée tenant une flûte  bansurî  dans des sculptures et des peintures. 
@@ -520,7 +534,7 @@
 Quatre des instruments utilisés en Polynésie pour les hulas traditionnels sont fabriqués en bambou : flûte nasale, hochets, tampons d'estampage et guimbarde. 
 Le bambou peut être utilisé dans la construction du didgeridoo australien à la place du bois d'eucalyptus plus traditionnel. 
 En Indonésie et aux Philippines, le bambou a été utilisé pour fabriquer divers types d'instruments de musique, tels que kulintang , angklung  et bumbong.
-Le bambou est également utilisé pour fabriquer des tambours à fente. Les banda kawayan (orchestres de bambou) traditionnels des Philippines utilisent plusieurs instruments de musique en bambou, dont marimbas, angklungs, flûtes de Pan et bumbongs, ainsi que des versions en bambou d'instruments occidentaux, tels que clarinettes, saxophones et tubas[2]. 
+Le bambou est également utilisé pour fabriquer des tambours à fente. Les banda kawayan (orchestres de bambou) traditionnels des Philippines utilisent plusieurs instruments de musique en bambou, dont marimbas, angklungs, flûtes de Pan et bumbongs, ainsi que des versions en bambou d'instruments occidentaux, tels que clarinettes, saxophones et tubas. 
 Aux Philippines, l'orgue de bambou de Las Piñas a ses tuyaux en chaumes de bambou.
 Le stick Chapman, instrument à cordes amplifié moderne, est également construit à l'aide de bambou.
 Le khên  (également orthographié khene ( lao : ແຄນ, thaï : แคน) est un orgue à bouche d'origine laotienne dont les tuyaux, généralement en bambou, sont reliés à un petit réservoir creusé dans un bois dur dans lequel l'air est soufflé, créant un son semblable à celui du violon.
@@ -556,6 +570,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
